--- a/data/tabla 03-12.xlsx
+++ b/data/tabla 03-12.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId2"/>
+    <sheet name="cv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>2010</t>
   </si>
@@ -65,6 +66,9 @@
   <si>
     <t>rama de actividad económica (agregación estándar)</t>
   </si>
+  <si>
+    <t>Rama de actividad económica (agregación estándar)</t>
+  </si>
 </sst>
 </file>
 
@@ -73,10 +77,2662 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="443">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="1106">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1847,7 +4503,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="96">
+  <fills count="237">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2324,8 +4980,713 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="353">
+  <borders count="881">
     <border>
       <left/>
       <right/>
@@ -5017,11 +8378,4049 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="881">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -6428,6 +13827,2118 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="442" fillId="95" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="455" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="456" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="457" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="458" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="459" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="460" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="461" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="462" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="463" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="464" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="465" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="466" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="467" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="468" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="469" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="470" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="471" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="472" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="477" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="478" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="484" fillId="0" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="486" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="487" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="488" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="490" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="493" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="496" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="499" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="500" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="501" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="502" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="503" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="505" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="506" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="507" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="508" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="509" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="510" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="511" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="512" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="514" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="515" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="517" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="518" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="520" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="534" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="536" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="538" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="540" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="542" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="544" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="546" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="552" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="554" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="556" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="558" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="560" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="564" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="570" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="576" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="582" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="588" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="594" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="600" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="606" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="612" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="614" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="96" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="97" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="98" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="620" fillId="99" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="621" fillId="100" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="101" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="623" fillId="102" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="103" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="625" fillId="104" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="626" fillId="105" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="627" fillId="106" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="107" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="629" fillId="108" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="109" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="631" fillId="110" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="632" fillId="111" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="633" fillId="112" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="113" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="635" fillId="114" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="115" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="637" fillId="116" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="638" fillId="117" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="639" fillId="118" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="119" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="641" fillId="120" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="121" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="643" fillId="122" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="644" fillId="123" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="645" fillId="124" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="125" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="647" fillId="126" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="648" fillId="127" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="649" fillId="128" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="650" fillId="129" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="651" fillId="130" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="131" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="653" fillId="132" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="654" fillId="133" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="655" fillId="134" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="656" fillId="135" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="657" fillId="136" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="137" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="659" fillId="138" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="139" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="661" fillId="140" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="141" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="142" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="676" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="677" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="678" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="679" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="680" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="681" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="682" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="683" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="684" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="685" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="686" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="687" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="688" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="689" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="694" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="700" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="703" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="706" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="720" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="721" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="722" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="723" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="724" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="726" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="727" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="728" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="729" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="730" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="731" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="732" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="733" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="737" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="738" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="755" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="761" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="763" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="767" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="773" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="779" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="785" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="787" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="789" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="791" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="797" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="799" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="803" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="805" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="809" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="811" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="813" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="815" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="817" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="821" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="823" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="827" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="829" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="833" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="835" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="143" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="144" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="145" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="841" fillId="146" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="842" fillId="147" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="148" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="844" fillId="149" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="150" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="846" fillId="151" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="847" fillId="152" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="848" fillId="153" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="154" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="850" fillId="155" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="156" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="852" fillId="157" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="853" fillId="158" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="854" fillId="159" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="160" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="856" fillId="161" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="162" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="858" fillId="163" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="859" fillId="164" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="860" fillId="165" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="861" fillId="166" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="862" fillId="167" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="168" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="864" fillId="169" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="865" fillId="170" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="171" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="867" fillId="172" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="868" fillId="173" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="174" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="870" fillId="175" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="871" fillId="176" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="177" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="873" fillId="178" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="874" fillId="179" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="875" fillId="180" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="876" fillId="181" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="877" fillId="182" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="183" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="879" fillId="184" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="880" fillId="185" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="186" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="882" fillId="187" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="188" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="189" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="897" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="898" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="899" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="900" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="901" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="902" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="903" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="904" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="905" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="906" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="907" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="908" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="909" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="910" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="911" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="912" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="913" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="914" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="915" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="916" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="917" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="918" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="919" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="922" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="923" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="924" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="925" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="928" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="931" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="934" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="935" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="936" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="937" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="941" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="942" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="943" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="946" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="947" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="948" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="949" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="952" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="955" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="958" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="959" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="960" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="961" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="964" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="965" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="966" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="967" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="968" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="976" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="978" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="982" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="984" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="986" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="988" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="990" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="992" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="994" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="996" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="998" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1000" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1002" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1004" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1006" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1008" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1010" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1012" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1014" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1016" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1018" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1020" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1022" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1024" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1026" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1028" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1030" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1032" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1034" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1036" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1038" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1040" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1042" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1044" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1046" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1048" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1050" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1052" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1054" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1056" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1058" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="190" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="191" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="192" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1062" fillId="193" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1063" fillId="194" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1064" fillId="195" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1065" fillId="196" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1066" fillId="197" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1067" fillId="198" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1068" fillId="199" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1069" fillId="200" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1070" fillId="201" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1071" fillId="202" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1072" fillId="203" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1073" fillId="204" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1074" fillId="205" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1075" fillId="206" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1076" fillId="207" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1077" fillId="208" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1078" fillId="209" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1079" fillId="210" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1080" fillId="211" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1081" fillId="212" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1082" fillId="213" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1083" fillId="214" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1084" fillId="215" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1085" fillId="216" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1086" fillId="217" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1087" fillId="218" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1088" fillId="219" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1089" fillId="220" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1090" fillId="221" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1091" fillId="222" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1092" fillId="223" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1093" fillId="224" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1094" fillId="225" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1095" fillId="226" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1096" fillId="227" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1097" fillId="228" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1098" fillId="229" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1099" fillId="230" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1100" fillId="231" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1101" fillId="232" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1102" fillId="233" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1103" fillId="234" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="235" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="236" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6444,167 +15955,167 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="306" t="s">
-        <v>16</v>
+      <c r="A2" s="658" t="s">
+        <v>17</v>
       </c>
-      <c r="B2" s="351" t="s">
+      <c r="B2" s="703" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="704" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="661" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="310">
+      <c r="B3" s="662">
         <v>193.37359619140625</v>
       </c>
-      <c r="C3" s="311">
+      <c r="C3" s="663">
         <v>316.5814208984375</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="664" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="313">
+      <c r="B4" s="665">
         <v>274.66650390625</v>
       </c>
-      <c r="C4" s="314">
+      <c r="C4" s="666">
         <v>450.3896484375</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="667" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="316">
+      <c r="B5" s="668">
         <v>676.88232421875</v>
       </c>
-      <c r="C5" s="317">
+      <c r="C5" s="669">
         <v>961.36724853515625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="670" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="319">
+      <c r="B6" s="671">
         <v>330.296875</v>
       </c>
-      <c r="C6" s="320">
+      <c r="C6" s="672">
         <v>485.6922607421875</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="321" t="s">
+      <c r="A7" s="673" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="322">
+      <c r="B7" s="674">
         <v>383.01370239257812</v>
       </c>
-      <c r="C7" s="323">
+      <c r="C7" s="675">
         <v>649.2220458984375</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="676" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="325">
+      <c r="B8" s="677">
         <v>314.36508178710937</v>
       </c>
-      <c r="C8" s="326">
+      <c r="C8" s="678">
         <v>504.66558837890625</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="327" t="s">
+      <c r="A9" s="679" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="328">
+      <c r="B9" s="680">
         <v>274.49142456054687</v>
       </c>
-      <c r="C9" s="329">
+      <c r="C9" s="681">
         <v>392.63821411132812</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="682" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="331">
+      <c r="B10" s="683">
         <v>279.15182495117187</v>
       </c>
-      <c r="C10" s="332">
+      <c r="C10" s="684">
         <v>398.31546020507812</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="333" t="s">
+      <c r="A11" s="685" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="334">
+      <c r="B11" s="686">
         <v>366.619873046875</v>
       </c>
-      <c r="C11" s="335">
+      <c r="C11" s="687">
         <v>532.36480712890625</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="336" t="s">
+      <c r="A12" s="688" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="337">
+      <c r="B12" s="689">
         <v>753.111328125</v>
       </c>
-      <c r="C12" s="338">
+      <c r="C12" s="690">
         <v>938.3106689453125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="339" t="s">
+      <c r="A13" s="691" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="340">
+      <c r="B13" s="692">
         <v>579.6435546875</v>
       </c>
-      <c r="C13" s="341">
+      <c r="C13" s="693">
         <v>713.55743408203125</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="342" t="s">
+      <c r="A14" s="694" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="343">
+      <c r="B14" s="695">
         <v>324.1282958984375</v>
       </c>
-      <c r="C14" s="344">
+      <c r="C14" s="696">
         <v>489.70654296875</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="697" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="346">
+      <c r="B15" s="698">
         <v>522.28033447265625</v>
       </c>
-      <c r="C15" s="347">
+      <c r="C15" s="699">
         <v>790.4676513671875</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="348" t="s">
+      <c r="A16" s="700" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="349">
+      <c r="B16" s="701">
         <v>345.033447265625</v>
       </c>
-      <c r="C16" s="350">
+      <c r="C16" s="702">
         <v>511.87258911132812</v>
       </c>
     </row>
@@ -6615,4 +16126,181 @@
     <mergeCell ref="A2:A2"/>
   </mergeCells>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="834" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="879"/>
+      <c r="C2" s="880" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="837" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="838">
+        <v>4.5694122314453125</v>
+      </c>
+      <c r="C3" s="839">
+        <v>3.1924824714660645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="840" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="841">
+        <v>9.2353076934814453</v>
+      </c>
+      <c r="C4" s="842">
+        <v>14.033099174499512</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="843" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="844">
+        <v>4.1031246185302734</v>
+      </c>
+      <c r="C5" s="845">
+        <v>3.5621790885925293</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="846" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="847">
+        <v>3.0854470729827881</v>
+      </c>
+      <c r="C6" s="848">
+        <v>4.1181645393371582</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="849" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="850">
+        <v>5.7120709419250488</v>
+      </c>
+      <c r="C7" s="851">
+        <v>8.5967903137207031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="852" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="853">
+        <v>4.5788240432739258</v>
+      </c>
+      <c r="C8" s="854">
+        <v>3.5403008460998535</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="855" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="856">
+        <v>3.5109343528747559</v>
+      </c>
+      <c r="C9" s="857">
+        <v>2.6839797496795654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="858" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="859">
+        <v>8.2348728179931641</v>
+      </c>
+      <c r="C10" s="860">
+        <v>5.2677974700927734</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="861" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="862">
+        <v>3.3443219661712646</v>
+      </c>
+      <c r="C11" s="863">
+        <v>4.5521750450134277</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="864" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="865">
+        <v>6.7213249206542969</v>
+      </c>
+      <c r="C12" s="866">
+        <v>5.2404642105102539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="867" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="868">
+        <v>6.0527153015136719</v>
+      </c>
+      <c r="C13" s="869">
+        <v>3.6739668846130371</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="870" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="871">
+        <v>2.3027968406677246</v>
+      </c>
+      <c r="C14" s="872">
+        <v>2.5046999454498291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="873" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="874">
+        <v>3.5257251262664795</v>
+      </c>
+      <c r="C15" s="875">
+        <v>2.9498469829559326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="876" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="877">
+        <v>1.5958460569381714</v>
+      </c>
+      <c r="C16" s="878">
+        <v>1.3632916212081909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A2:A2"/>
+  </mergeCells>
+</worksheet>
 </file>